--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D862946-4FB3-1C46-BB5B-41BBCB0199FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC257EFC-3DB1-A642-8C0C-D7ED07615E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="-27140" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>荷蘭poll-tex普特絲防霾紗窗</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>L008</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -697,6 +693,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>🎉 &lt;br&gt;
 對象：新成屋/老廚具換新用戶 &lt;br&gt;
@@ -724,6 +721,10 @@
     <t>stonehongming@gmail.com</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>荷蘭polltex普特絲防霾紗窗</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -732,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -776,6 +777,12 @@
       <color rgb="FF000000"/>
       <name val="BiauKaiTC"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -842,7 +849,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -886,9 +893,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2022,10 +2026,10 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2418,87 +2422,87 @@
       <c r="K8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC257EFC-3DB1-A642-8C0C-D7ED07615E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA370B5-93A2-4648-87BA-58ADCB8F07AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="-27140" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
   <si>
     <t>address</t>
   </si>
@@ -627,10 +627,6 @@
   </si>
   <si>
     <t>LOC-008-02.png</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>@PT999</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -2026,10 +2022,10 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2428,7 +2424,7 @@
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>120</v>
@@ -2446,63 +2442,61 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="W9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="X9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA370B5-93A2-4648-87BA-58ADCB8F07AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3984582-D3BF-AB4D-85A3-DC9F7066EF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="-27140" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20980" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
   <si>
     <t>address</t>
   </si>
@@ -719,6 +719,59 @@
   </si>
   <si>
     <t>荷蘭polltex普特絲防霾紗窗</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://liff.line.me/1645278921-kWRPP32q/?accountId=556agjoe</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-010-01.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-010-02.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100057406841370$0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>L010</t>
+  </si>
+  <si>
+    <t>40+逆齡運動俱樂部</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-3201</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 - 17:00 週六日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;40+逆齡運動俱樂部&lt;/h3&gt;
+&lt;p&gt;國立體育大學的 40+逆齡運動俱樂部~是歐郎老師和姿蓉老師在大學時期的回憶之一，在健康學院湯文慈院長/教授的任內，40+給了我們很大的發揮空間，讓我們有許多中高齡運動的教學經驗，實際場域的磨練果真充滿酸甜苦辣卻也最深刻。40+ 在 2019 年進駐體大幫助我們練習了課程的變化與設計；訓練我們去了解每一位中高齡者的獨特性，同時也接觸到了 HUR 運動器材，這一套來自芬蘭的氣壓式阻力訓練機。&lt;/p&gt;
+&lt;p&gt;高齡者的阻力訓練重要嗎？&lt;br&gt;
+46% 的 80 歲以上老年人可以舉起的重量不超過 5 公斤，對於 65 歲以上的男性和女性來說，力量訓練是最重要的訓練內容之一 (美國運動醫學會, ACSM)。但阻力訓練對高齡者來說彷彿有一道門檻，需要在安全、正確的前提下才能事半功倍。在接觸 HUR 這一套新的系統時我們學習到了科技的日新月異和智慧化的輔助能帶給高齡者一個更好的運動環境！&lt;/p&gt;
+&lt;p&gt;HUR 的優點 (截取自 HUR 官網)：&lt;br&gt;
+HUR SmartTouch 電腦化訓練與操作，智慧後臺管理,
+啟動時接近 0 負荷,
+機械本身重量輕、強度高,
+小至 100g 的負荷增量,
+氣壓技術提供肌肉的最佳負荷,
+安全且自然的運動,
+智慧地自動增加阻力,
+可執行等長的肌力測試,
+透過範圍限制器，限制運動範圍&lt;/p&gt;
+&lt;p&gt;依稀記得那些 6:00 到早泳會發傳單招生的日子；6:30 睡眼惺忪地去開健身房的門準備教早課的日子；強壯的早泳會叔叔阿姨又或是午休時有趣打鬧的教職員班！教課使我們有不一樣的身分和大學生活，讓我們擁有許許多多不一樣的回憶。從 HUR 的智慧後台我們可以看見運動確實帶來「Get Stronger, Feel Younger」的效果，另一方面也訴說著~當中高齡者有能力安排「自己的生活」時，大家看起來都逆轉了實際的年齡數字。&lt;/P&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路250號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +898,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -889,6 +942,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2019,13 +2075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2383,6 +2439,12 @@
       <c r="K7" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="S7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="W7" s="14" t="s">
         <v>104</v>
       </c>
@@ -2418,6 +2480,12 @@
       <c r="K8" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="S8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="W8" s="14" t="s">
         <v>118</v>
       </c>
@@ -2451,6 +2519,12 @@
         <v>126</v>
       </c>
       <c r="K9" s="11"/>
+      <c r="S9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="W9" s="14" t="s">
         <v>125</v>
       </c>
@@ -2495,8 +2569,55 @@
       <c r="M10" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="S10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="W10" s="14" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2526,6 +2647,8 @@
     <hyperlink ref="I9" r:id="rId17" xr:uid="{DA098836-B886-284A-9D4A-9C9D3D700507}"/>
     <hyperlink ref="I10" r:id="rId18" xr:uid="{ED53DD6A-0F28-5041-B9E7-3FDC2268B98C}"/>
     <hyperlink ref="M10" r:id="rId19" xr:uid="{AD52DACA-B0B5-AC49-90FF-CA335BAF490B}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{2B3965E0-797D-2243-B5C2-E3AF0615C038}"/>
+    <hyperlink ref="J11" r:id="rId21" xr:uid="{7388F00E-1A8D-C34B-838B-68719F2E130C}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3984582-D3BF-AB4D-85A3-DC9F7066EF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1804D7-CE41-EE4D-8567-F75DAB2877B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20980" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -734,10 +734,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/profile.php?id=100057406841370$0</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>L010</t>
   </si>
   <si>
@@ -772,6 +768,10 @@
   </si>
   <si>
     <t>桃園市龜山區文化一路250號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100057406841370</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +898,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -942,9 +942,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2078,10 +2075,10 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2581,22 +2578,22 @@
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>151</v>
+      <c r="D11" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>143</v>
@@ -2605,7 +2602,7 @@
         <v>144</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>142</v>
@@ -2616,8 +2613,8 @@
       <c r="T11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="15" t="s">
-        <v>150</v>
+      <c r="W11" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1804D7-CE41-EE4D-8567-F75DAB2877B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3984582-D3BF-AB4D-85A3-DC9F7066EF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20980" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -734,6 +734,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.facebook.com/profile.php?id=100057406841370$0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>L010</t>
   </si>
   <si>
@@ -768,10 +772,6 @@
   </si>
   <si>
     <t>桃園市龜山區文化一路250號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100057406841370</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +898,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -942,6 +942,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2075,10 +2078,10 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2578,22 +2581,22 @@
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>150</v>
+      <c r="D11" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>143</v>
@@ -2602,7 +2605,7 @@
         <v>144</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>142</v>
@@ -2613,8 +2616,8 @@
       <c r="T11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="14" t="s">
-        <v>149</v>
+      <c r="W11" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
